--- a/results/by_outcome/full_results_education_PGI_Sisters_MI.xlsx
+++ b/results/by_outcome/full_results_education_PGI_Sisters_MI.xlsx
@@ -483,10 +483,10 @@
         <v>#NUM!</v>
       </c>
       <c r="H2" t="n">
-        <v>0.566935199971246</v>
+        <v>0.567990673360382</v>
       </c>
       <c r="I2" t="n">
-        <v>0.332314487726172</v>
+        <v>0.330304996596306</v>
       </c>
       <c r="J2" t="e">
         <v>#NUM!</v>
@@ -504,7 +504,7 @@
         <v>#NUM!</v>
       </c>
       <c r="O2" t="n">
-        <v>0.433265502463182</v>
+        <v>0.432210294765397</v>
       </c>
     </row>
     <row r="3">
@@ -524,10 +524,10 @@
         <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>0.569708305087918</v>
+        <v>0.569665662819586</v>
       </c>
       <c r="G3" t="n">
-        <v>0.363838670449769</v>
+        <v>0.364314273232692</v>
       </c>
       <c r="H3" t="e">
         <v>#NUM!</v>
@@ -562,13 +562,13 @@
         <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>0.60372061753408</v>
+        <v>0.603975554745592</v>
       </c>
       <c r="D4" t="n">
-        <v>0.396633520548998</v>
+        <v>0.396378393439593</v>
       </c>
       <c r="E4" t="n">
-        <v>1.00035413808308</v>
+        <v>1.00035394818519</v>
       </c>
       <c r="F4" t="e">
         <v>#NUM!</v>
@@ -583,19 +583,19 @@
         <v>#NUM!</v>
       </c>
       <c r="J4" t="n">
-        <v>0.396493107152973</v>
+        <v>0.396238145549144</v>
       </c>
       <c r="K4" t="n">
-        <v>0.363709867165741</v>
+        <v>0.364185370454682</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00277212348614468</v>
+        <v>0.00167439677955247</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0367723953102082</v>
+        <v>0.0359721492162525</v>
       </c>
       <c r="N4" t="n">
-        <v>0.366481990651886</v>
+        <v>0.365859767234235</v>
       </c>
       <c r="O4" t="e">
         <v>#NUM!</v>
@@ -640,13 +640,13 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0.396493107152973</v>
+        <v>0.396238145549144</v>
       </c>
       <c r="D2" t="n">
-        <v>0.334403068059277</v>
+        <v>0.337167474042301</v>
       </c>
       <c r="E2" t="n">
-        <v>0.45858314624667</v>
+        <v>0.455308817055987</v>
       </c>
     </row>
     <row r="3">
@@ -657,13 +657,13 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.366481990651886</v>
+        <v>0.365859767234235</v>
       </c>
       <c r="D3" t="n">
-        <v>0.297854568649233</v>
+        <v>0.302832570431487</v>
       </c>
       <c r="E3" t="n">
-        <v>0.435109412654539</v>
+        <v>0.428886964036983</v>
       </c>
     </row>
     <row r="4">
@@ -674,13 +674,13 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>0.433265502463182</v>
+        <v>0.432210294765397</v>
       </c>
       <c r="D4" t="n">
-        <v>0.364989986063999</v>
+        <v>0.369251068965778</v>
       </c>
       <c r="E4" t="n">
-        <v>0.501541018862364</v>
+        <v>0.495169520565016</v>
       </c>
     </row>
   </sheetData>

--- a/results/by_outcome/full_results_education_PGI_Sisters_MI.xlsx
+++ b/results/by_outcome/full_results_education_PGI_Sisters_MI.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">Outcome</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t xml:space="preserve">Upper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diff</t>
   </si>
 </sst>
 </file>
@@ -483,10 +489,10 @@
         <v>#NUM!</v>
       </c>
       <c r="H2" t="n">
-        <v>0.567990673360382</v>
+        <v>0.568336485682984</v>
       </c>
       <c r="I2" t="n">
-        <v>0.330304996596306</v>
+        <v>0.330070066857121</v>
       </c>
       <c r="J2" t="e">
         <v>#NUM!</v>
@@ -504,7 +510,7 @@
         <v>#NUM!</v>
       </c>
       <c r="O2" t="n">
-        <v>0.432210294765397</v>
+        <v>0.431864501715099</v>
       </c>
     </row>
     <row r="3">
@@ -524,10 +530,10 @@
         <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>0.569665662819586</v>
+        <v>0.569541729316187</v>
       </c>
       <c r="G3" t="n">
-        <v>0.364314273232692</v>
+        <v>0.364407141095672</v>
       </c>
       <c r="H3" t="e">
         <v>#NUM!</v>
@@ -562,13 +568,13 @@
         <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>0.603975554745592</v>
+        <v>0.604017668620019</v>
       </c>
       <c r="D4" t="n">
-        <v>0.396378393439593</v>
+        <v>0.396336098359715</v>
       </c>
       <c r="E4" t="n">
-        <v>1.00035394818519</v>
+        <v>1.00035376697973</v>
       </c>
       <c r="F4" t="e">
         <v>#NUM!</v>
@@ -583,19 +589,19 @@
         <v>#NUM!</v>
       </c>
       <c r="J4" t="n">
-        <v>0.396238145549144</v>
+        <v>0.396195937348151</v>
       </c>
       <c r="K4" t="n">
-        <v>0.364185370454682</v>
+        <v>0.364278271350985</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00167439677955247</v>
+        <v>0.00120481729895002</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0359721492162525</v>
+        <v>0.0356685643669483</v>
       </c>
       <c r="N4" t="n">
-        <v>0.365859767234235</v>
+        <v>0.365483088649935</v>
       </c>
       <c r="O4" t="e">
         <v>#NUM!</v>
@@ -631,6 +637,9 @@
       <c r="E1" t="s">
         <v>22</v>
       </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -640,13 +649,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0.396238145549144</v>
+        <v>0.396195937348151</v>
       </c>
       <c r="D2" t="n">
-        <v>0.337167474042301</v>
+        <v>0.338240775414672</v>
       </c>
       <c r="E2" t="n">
-        <v>0.455308817055987</v>
+        <v>0.454151099281629</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0000000000000000000000000000000000000000614466827983977</v>
       </c>
     </row>
     <row r="3">
@@ -657,13 +669,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.365859767234235</v>
+        <v>0.365483088649935</v>
       </c>
       <c r="D3" t="n">
-        <v>0.302832570431487</v>
+        <v>0.300622936335278</v>
       </c>
       <c r="E3" t="n">
-        <v>0.428886964036983</v>
+        <v>0.430343240964591</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.000000000000000000000000000234380950335795</v>
       </c>
     </row>
     <row r="4">
@@ -674,13 +689,36 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>0.432210294765397</v>
+        <v>0.431864501715099</v>
       </c>
       <c r="D4" t="n">
-        <v>0.369251068965778</v>
+        <v>0.36805376589927</v>
       </c>
       <c r="E4" t="n">
-        <v>0.495169520565016</v>
+        <v>0.495675237530928</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.000000000000000000000000000000000000000372385131415106</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0663814130651642</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0347756612825908</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0979871648477377</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0000384664019012518</v>
       </c>
     </row>
   </sheetData>
